--- a/MGT 3700/Sleep/Copy of Sleep Data Main.xlsx
+++ b/MGT 3700/Sleep/Copy of Sleep Data Main.xlsx
@@ -7942,6 +7942,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15277,7 +15281,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
